--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang8/4.TraBH/TBH220822_AnhTuanBG.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang8/4.TraBH/TBH220822_AnhTuanBG.xlsx
@@ -15,14 +15,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$2:$I$46</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$2:$I$52</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="77">
   <si>
     <t xml:space="preserve">STT </t>
   </si>
@@ -190,13 +190,76 @@
   </si>
   <si>
     <t>Hà Nội, ngày 22 tháng 08 năm 2022</t>
+  </si>
+  <si>
+    <t>VNSH02</t>
+  </si>
+  <si>
+    <t>WP21110069S00381</t>
+  </si>
+  <si>
+    <t>Dây kết nối</t>
+  </si>
+  <si>
+    <t>ID: 00320011E7, WP21110069S00126</t>
+  </si>
+  <si>
+    <t>WSP21060004S0258</t>
+  </si>
+  <si>
+    <t>ID: 0032002955, WP21120135S02906</t>
+  </si>
+  <si>
+    <t>WP21110069S00976</t>
+  </si>
+  <si>
+    <t>ID: 0032000C34, WP21110052S00346</t>
+  </si>
+  <si>
+    <t>WP21120135S01290</t>
+  </si>
+  <si>
+    <t>ID: 003200240D, WP21120135S00682</t>
+  </si>
+  <si>
+    <t>WP21120135S02926</t>
+  </si>
+  <si>
+    <t>ID: 0032001FFB</t>
+  </si>
+  <si>
+    <t>Thẻ nhớ</t>
+  </si>
+  <si>
+    <t>SL: 4</t>
+  </si>
+  <si>
+    <t>3 Thẻ lỗi 64GB, 1 thẻ 256GB</t>
+  </si>
+  <si>
+    <t>3 thẻ nhớ 64GB lỗi, 1 thẻ 256GB hoạt động bình thường</t>
+  </si>
+  <si>
+    <t>Đổi mới 3 thẻ nhớ 64GB, thẻ nhớ 256 GB hoạt động bình thường</t>
+  </si>
+  <si>
+    <t>Thiết bị không nhận sim</t>
+  </si>
+  <si>
+    <t>Thiết bị mất cấu hình</t>
+  </si>
+  <si>
+    <t>Đổi mới thiết bị</t>
+  </si>
+  <si>
+    <t>Cấu hình lại thiết bị</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -301,6 +364,12 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -316,7 +385,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="32">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -689,6 +758,30 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -699,7 +792,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -822,105 +915,6 @@
     <xf numFmtId="3" fontId="13" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -930,6 +924,126 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="14" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1288,10 +1402,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:M87"/>
+  <dimension ref="A2:M93"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:I9"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A25" zoomScale="115" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1311,77 +1425,77 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="57"/>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="48" t="s">
+      <c r="A2" s="66"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="50"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="59"/>
     </row>
     <row r="3" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="60"/>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="51" t="s">
+      <c r="A3" s="69"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="53"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="62"/>
     </row>
     <row r="4" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="60"/>
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="51" t="s">
+      <c r="A4" s="69"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="53"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="62"/>
     </row>
     <row r="5" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="63"/>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="54" t="s">
+      <c r="A5" s="72"/>
+      <c r="B5" s="73"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="74"/>
+      <c r="F5" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="55"/>
-      <c r="H5" s="55"/>
-      <c r="I5" s="56"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="64"/>
+      <c r="I5" s="65"/>
     </row>
     <row r="6" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="73" t="s">
+      <c r="A6" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="74"/>
-      <c r="C6" s="74"/>
-      <c r="D6" s="74"/>
-      <c r="E6" s="74"/>
-      <c r="F6" s="74"/>
-      <c r="G6" s="74"/>
-      <c r="H6" s="74"/>
-      <c r="I6" s="75"/>
+      <c r="B6" s="83"/>
+      <c r="C6" s="83"/>
+      <c r="D6" s="83"/>
+      <c r="E6" s="83"/>
+      <c r="F6" s="83"/>
+      <c r="G6" s="83"/>
+      <c r="H6" s="83"/>
+      <c r="I6" s="84"/>
     </row>
     <row r="7" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="72" t="s">
+      <c r="B7" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="72"/>
-      <c r="D7" s="72"/>
+      <c r="C7" s="81"/>
+      <c r="D7" s="81"/>
       <c r="E7" s="19"/>
       <c r="F7" s="19"/>
       <c r="G7" s="20"/>
@@ -1390,58 +1504,58 @@
     </row>
     <row r="8" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
-      <c r="B8" s="68" t="s">
+      <c r="B8" s="77" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="68"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="68"/>
-      <c r="F8" s="68"/>
-      <c r="G8" s="68"/>
-      <c r="H8" s="68"/>
-      <c r="I8" s="69"/>
+      <c r="C8" s="77"/>
+      <c r="D8" s="77"/>
+      <c r="E8" s="77"/>
+      <c r="F8" s="77"/>
+      <c r="G8" s="77"/>
+      <c r="H8" s="77"/>
+      <c r="I8" s="78"/>
     </row>
     <row r="9" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
-      <c r="B9" s="66" t="s">
+      <c r="B9" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="66"/>
-      <c r="D9" s="66"/>
-      <c r="E9" s="66"/>
-      <c r="F9" s="66"/>
-      <c r="G9" s="66"/>
-      <c r="H9" s="66"/>
-      <c r="I9" s="67"/>
+      <c r="C9" s="75"/>
+      <c r="D9" s="75"/>
+      <c r="E9" s="75"/>
+      <c r="F9" s="75"/>
+      <c r="G9" s="75"/>
+      <c r="H9" s="75"/>
+      <c r="I9" s="76"/>
     </row>
     <row r="10" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
-      <c r="B10" s="68" t="s">
+      <c r="B10" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="68"/>
-      <c r="D10" s="68"/>
-      <c r="E10" s="68"/>
-      <c r="F10" s="68"/>
-      <c r="G10" s="68"/>
-      <c r="H10" s="68"/>
-      <c r="I10" s="69"/>
+      <c r="C10" s="77"/>
+      <c r="D10" s="77"/>
+      <c r="E10" s="77"/>
+      <c r="F10" s="77"/>
+      <c r="G10" s="77"/>
+      <c r="H10" s="77"/>
+      <c r="I10" s="78"/>
       <c r="M10" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
-      <c r="B11" s="70" t="s">
+      <c r="B11" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="70"/>
-      <c r="D11" s="70"/>
-      <c r="E11" s="70"/>
-      <c r="F11" s="70"/>
-      <c r="G11" s="70"/>
-      <c r="H11" s="70"/>
-      <c r="I11" s="71"/>
+      <c r="C11" s="79"/>
+      <c r="D11" s="79"/>
+      <c r="E11" s="79"/>
+      <c r="F11" s="79"/>
+      <c r="G11" s="79"/>
+      <c r="H11" s="79"/>
+      <c r="I11" s="80"/>
       <c r="L11" s="1" t="s">
         <v>10</v>
       </c>
@@ -1993,7 +2107,7 @@
       <c r="H33" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="I33" s="42"/>
+      <c r="I33" s="45"/>
       <c r="J33" s="18"/>
     </row>
     <row r="34" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2029,10 +2143,10 @@
       <c r="B35" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="C35" s="81">
+      <c r="C35" s="48">
         <v>862118020955453</v>
       </c>
-      <c r="D35" s="82"/>
+      <c r="D35" s="49"/>
       <c r="E35" s="37" t="s">
         <v>22</v>
       </c>
@@ -2053,10 +2167,10 @@
       <c r="B36" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="C36" s="83">
+      <c r="C36" s="50">
         <v>865904027284253</v>
       </c>
-      <c r="D36" s="84"/>
+      <c r="D36" s="51"/>
       <c r="E36" s="37" t="s">
         <v>22</v>
       </c>
@@ -2073,154 +2187,320 @@
       <c r="J36" s="18"/>
     </row>
     <row r="37" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="36">
+      <c r="A37" s="85">
         <v>25</v>
       </c>
-      <c r="B37" s="37" t="s">
+      <c r="B37" s="86" t="s">
         <v>24</v>
       </c>
-      <c r="C37" s="38">
+      <c r="C37" s="87">
         <v>866762029052790</v>
       </c>
-      <c r="D37" s="37" t="s">
+      <c r="D37" s="86" t="s">
         <v>41</v>
       </c>
-      <c r="E37" s="37" t="s">
+      <c r="E37" s="86" t="s">
         <v>22</v>
       </c>
-      <c r="F37" s="37" t="s">
+      <c r="F37" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="G37" s="40" t="s">
+      <c r="G37" s="88" t="s">
         <v>52</v>
       </c>
-      <c r="H37" s="40" t="s">
+      <c r="H37" s="88" t="s">
         <v>54</v>
       </c>
-      <c r="I37" s="42"/>
+      <c r="I37" s="89"/>
       <c r="J37" s="18"/>
     </row>
-    <row r="38" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="30"/>
-      <c r="B38" s="29"/>
-      <c r="C38" s="31"/>
-      <c r="D38" s="29"/>
-      <c r="E38" s="29"/>
-      <c r="F38" s="32"/>
-      <c r="G38" s="33"/>
-      <c r="H38" s="34"/>
-      <c r="I38" s="35"/>
+    <row r="38" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="85">
+        <v>26</v>
+      </c>
+      <c r="B38" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="C38" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="D38" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="E38" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="F38" s="91" t="s">
+        <v>59</v>
+      </c>
+      <c r="G38" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="H38" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="I38" s="45"/>
       <c r="J38" s="18"/>
     </row>
-    <row r="39" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D39" s="13" t="s">
+    <row r="39" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="85">
+        <v>27</v>
+      </c>
+      <c r="B39" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="C39" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="D39" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="E39" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="F39" s="91" t="s">
+        <v>61</v>
+      </c>
+      <c r="G39" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="H39" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="I39" s="45"/>
+      <c r="J39" s="18"/>
+    </row>
+    <row r="40" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="85">
+        <v>28</v>
+      </c>
+      <c r="B40" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="C40" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="D40" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="E40" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="F40" s="91" t="s">
+        <v>63</v>
+      </c>
+      <c r="G40" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="H40" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="I40" s="45"/>
+      <c r="J40" s="18"/>
+    </row>
+    <row r="41" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="85">
+        <v>29</v>
+      </c>
+      <c r="B41" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="C41" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="D41" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="E41" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="F41" s="91" t="s">
+        <v>65</v>
+      </c>
+      <c r="G41" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="H41" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="I41" s="45"/>
+      <c r="J41" s="18"/>
+    </row>
+    <row r="42" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="85">
+        <v>30</v>
+      </c>
+      <c r="B42" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="C42" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="D42" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="E42" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="F42" s="90" t="s">
+        <v>67</v>
+      </c>
+      <c r="G42" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="H42" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="I42" s="45"/>
+      <c r="J42" s="18"/>
+    </row>
+    <row r="43" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="36">
+        <v>31</v>
+      </c>
+      <c r="B43" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="D43" s="37"/>
+      <c r="E43" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="F43" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="G43" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="H43" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="I43" s="45"/>
+      <c r="J43" s="18"/>
+    </row>
+    <row r="44" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="30"/>
+      <c r="B44" s="29"/>
+      <c r="C44" s="31"/>
+      <c r="D44" s="29"/>
+      <c r="E44" s="29"/>
+      <c r="F44" s="32"/>
+      <c r="G44" s="33"/>
+      <c r="H44" s="34"/>
+      <c r="I44" s="35"/>
+      <c r="J44" s="18"/>
+    </row>
+    <row r="45" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D45" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E39" s="13"/>
-      <c r="F39" s="14"/>
-      <c r="G39" s="76" t="s">
+      <c r="E45" s="13"/>
+      <c r="F45" s="14"/>
+      <c r="G45" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="H39" s="76"/>
-      <c r="I39" s="76"/>
-    </row>
-    <row r="40" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="78" t="s">
+      <c r="H45" s="52"/>
+      <c r="I45" s="52"/>
+    </row>
+    <row r="46" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="B40" s="78"/>
-      <c r="C40" s="78"/>
-      <c r="D40" s="78"/>
-      <c r="E40" s="78"/>
-      <c r="F40" s="28"/>
-      <c r="G40" s="80" t="s">
+      <c r="B46" s="54"/>
+      <c r="C46" s="54"/>
+      <c r="D46" s="54"/>
+      <c r="E46" s="54"/>
+      <c r="F46" s="28"/>
+      <c r="G46" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="H40" s="80"/>
-      <c r="I40" s="80"/>
-    </row>
-    <row r="41" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="12"/>
-      <c r="B41" s="12"/>
-      <c r="C41" s="12"/>
-      <c r="D41" s="23"/>
-      <c r="E41" s="23"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="23"/>
-      <c r="H41" s="23"/>
-      <c r="I41" s="26"/>
-    </row>
-    <row r="42" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="12"/>
-      <c r="B42" s="12"/>
-      <c r="C42" s="12"/>
-      <c r="D42" s="23"/>
-      <c r="E42" s="23"/>
-      <c r="F42" s="10"/>
-      <c r="G42" s="23"/>
-      <c r="H42" s="23"/>
-      <c r="I42" s="26"/>
-    </row>
-    <row r="43" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="12"/>
-      <c r="B43" s="12"/>
-      <c r="C43" s="12"/>
-      <c r="D43" s="23"/>
-      <c r="E43" s="23"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="23"/>
-      <c r="H43" s="23"/>
-      <c r="I43" s="26"/>
-    </row>
-    <row r="44" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="24"/>
-      <c r="B44" s="25"/>
-      <c r="C44" s="25"/>
-      <c r="D44" s="25"/>
-      <c r="E44" s="25"/>
-      <c r="H44" s="3"/>
-      <c r="I44" s="27"/>
-    </row>
-    <row r="45" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="79" t="s">
+      <c r="H46" s="56"/>
+      <c r="I46" s="56"/>
+    </row>
+    <row r="47" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="12"/>
+      <c r="B47" s="12"/>
+      <c r="C47" s="12"/>
+      <c r="D47" s="23"/>
+      <c r="E47" s="23"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="23"/>
+      <c r="H47" s="23"/>
+      <c r="I47" s="26"/>
+    </row>
+    <row r="48" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="12"/>
+      <c r="B48" s="12"/>
+      <c r="C48" s="12"/>
+      <c r="D48" s="23"/>
+      <c r="E48" s="23"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="23"/>
+      <c r="H48" s="23"/>
+      <c r="I48" s="26"/>
+    </row>
+    <row r="49" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="12"/>
+      <c r="B49" s="12"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="23"/>
+      <c r="E49" s="23"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="23"/>
+      <c r="H49" s="23"/>
+      <c r="I49" s="26"/>
+    </row>
+    <row r="50" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="24"/>
+      <c r="B50" s="25"/>
+      <c r="C50" s="25"/>
+      <c r="D50" s="25"/>
+      <c r="E50" s="25"/>
+      <c r="H50" s="3"/>
+      <c r="I50" s="27"/>
+    </row>
+    <row r="51" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="B45" s="79"/>
-      <c r="C45" s="79"/>
-      <c r="D45" s="79"/>
-      <c r="E45" s="79"/>
-      <c r="F45" s="11"/>
-      <c r="G45" s="79" t="s">
+      <c r="B51" s="55"/>
+      <c r="C51" s="55"/>
+      <c r="D51" s="55"/>
+      <c r="E51" s="55"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="H45" s="79"/>
-      <c r="I45" s="79"/>
-    </row>
-    <row r="46" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B48" s="77"/>
-      <c r="C48" s="77"/>
-    </row>
-    <row r="87" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="H51" s="55"/>
+      <c r="I51" s="55"/>
+    </row>
+    <row r="52" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B54" s="53"/>
+      <c r="C54" s="53"/>
+    </row>
+    <row r="93" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="A40:E40"/>
-    <mergeCell ref="A45:E45"/>
-    <mergeCell ref="G40:I40"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="A2:E5"/>
     <mergeCell ref="B9:I9"/>
     <mergeCell ref="B10:I10"/>
     <mergeCell ref="B11:I11"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="A6:I6"/>
     <mergeCell ref="B8:I8"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="A2:E5"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="A46:E46"/>
+    <mergeCell ref="A51:E51"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="G51:I51"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="1.2" bottom="1.2" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="76" fitToHeight="0" orientation="landscape" r:id="rId1"/>
